--- a/RO Analysis - New Working File.xlsx
+++ b/RO Analysis - New Working File.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maazuddin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waqas/web/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D126418-7747-0F40-B382-4C00B98B6BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD434FC-C7B8-2343-8236-D262225D674D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{74E0AA6C-BCD0-4EDA-ABD9-A4A5F90CF027}"/>
   </bookViews>
@@ -4925,7 +4925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4981,8 +4981,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -5311,7 +5309,7 @@
   <dimension ref="A2:J610"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C295" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
@@ -5973,7 +5971,6 @@
       <c r="B31" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="37"/>
       <c r="E31" s="1">
         <v>2</v>
       </c>
@@ -6037,7 +6034,6 @@
       <c r="B34" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="37"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10">
         <v>2</v>
@@ -6083,7 +6079,6 @@
       <c r="B36" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="37"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10">
         <v>2</v>
@@ -6129,7 +6124,6 @@
       <c r="B38" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="37"/>
       <c r="E38" s="1">
         <v>2</v>
       </c>
@@ -17283,7 +17277,7 @@
       <c r="B511" s="20" t="s">
         <v>1352</v>
       </c>
-      <c r="C511" s="38"/>
+      <c r="C511" s="22"/>
       <c r="E511" s="1">
         <v>2</v>
       </c>
@@ -17299,7 +17293,7 @@
     </row>
     <row r="512" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B512" s="20"/>
-      <c r="C512" s="38"/>
+      <c r="C512" s="22"/>
       <c r="E512" s="1">
         <v>3</v>
       </c>
@@ -17313,7 +17307,7 @@
     </row>
     <row r="513" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B513" s="20"/>
-      <c r="C513" s="38"/>
+      <c r="C513" s="22"/>
       <c r="E513" s="1">
         <v>4</v>
       </c>
@@ -17329,7 +17323,7 @@
     </row>
     <row r="514" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B514" s="20"/>
-      <c r="C514" s="38"/>
+      <c r="C514" s="22"/>
       <c r="E514" s="1">
         <v>5</v>
       </c>
@@ -17393,7 +17387,7 @@
       <c r="B517" s="20" t="s">
         <v>1363</v>
       </c>
-      <c r="C517" s="38"/>
+      <c r="C517" s="22"/>
       <c r="E517" s="1">
         <v>2</v>
       </c>
@@ -17409,7 +17403,7 @@
     </row>
     <row r="518" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B518" s="20"/>
-      <c r="C518" s="38"/>
+      <c r="C518" s="22"/>
       <c r="E518" s="1">
         <v>3</v>
       </c>
@@ -17425,7 +17419,7 @@
     </row>
     <row r="519" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B519" s="20"/>
-      <c r="C519" s="38"/>
+      <c r="C519" s="22"/>
       <c r="E519" s="1">
         <v>4</v>
       </c>
@@ -17439,7 +17433,7 @@
     </row>
     <row r="520" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B520" s="20"/>
-      <c r="C520" s="38"/>
+      <c r="C520" s="22"/>
       <c r="E520" s="1">
         <v>5</v>
       </c>
@@ -17501,7 +17495,6 @@
       <c r="B523" s="16" t="s">
         <v>1373</v>
       </c>
-      <c r="C523" s="37"/>
       <c r="E523" s="1">
         <v>2</v>
       </c>
@@ -17517,7 +17510,6 @@
     </row>
     <row r="524" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B524" s="16"/>
-      <c r="C524" s="37"/>
       <c r="E524" s="1">
         <v>3</v>
       </c>
@@ -17531,7 +17523,6 @@
     </row>
     <row r="525" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B525" s="16"/>
-      <c r="C525" s="37"/>
       <c r="E525" s="1">
         <v>4</v>
       </c>
@@ -17545,7 +17536,6 @@
     </row>
     <row r="526" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B526" s="16"/>
-      <c r="C526" s="37"/>
       <c r="E526" s="1">
         <v>5</v>
       </c>
@@ -17559,7 +17549,6 @@
     </row>
     <row r="527" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B527" s="16"/>
-      <c r="C527" s="37"/>
       <c r="E527" s="1">
         <v>6</v>
       </c>
@@ -17573,7 +17562,6 @@
     </row>
     <row r="528" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B528" s="16"/>
-      <c r="C528" s="37"/>
       <c r="E528" s="1">
         <v>7</v>
       </c>
@@ -17635,7 +17623,6 @@
       <c r="B531" s="16" t="s">
         <v>1384</v>
       </c>
-      <c r="C531" s="37"/>
       <c r="E531" s="1">
         <v>2</v>
       </c>
@@ -17649,7 +17636,6 @@
     </row>
     <row r="532" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B532" s="16"/>
-      <c r="C532" s="37"/>
       <c r="E532" s="1">
         <v>3</v>
       </c>
@@ -17663,7 +17649,6 @@
     </row>
     <row r="533" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B533" s="16"/>
-      <c r="C533" s="37"/>
       <c r="E533" s="1">
         <v>4</v>
       </c>
@@ -17677,7 +17662,6 @@
     </row>
     <row r="534" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B534" s="16"/>
-      <c r="C534" s="37"/>
       <c r="E534" s="1">
         <v>5</v>
       </c>
@@ -17737,7 +17721,6 @@
       <c r="B537" s="16" t="s">
         <v>1393</v>
       </c>
-      <c r="C537" s="37"/>
       <c r="E537" s="1">
         <v>2</v>
       </c>
@@ -17751,7 +17734,6 @@
     </row>
     <row r="538" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B538" s="16"/>
-      <c r="C538" s="37"/>
       <c r="E538" s="1">
         <v>3</v>
       </c>
@@ -17767,7 +17749,6 @@
     </row>
     <row r="539" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B539" s="16"/>
-      <c r="C539" s="37"/>
       <c r="E539" s="1">
         <v>4</v>
       </c>
@@ -17781,7 +17762,6 @@
     </row>
     <row r="540" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B540" s="16"/>
-      <c r="C540" s="37"/>
       <c r="E540" s="1">
         <v>5</v>
       </c>
@@ -17795,7 +17775,6 @@
     </row>
     <row r="541" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B541" s="16"/>
-      <c r="C541" s="37"/>
       <c r="E541" s="1">
         <v>6</v>
       </c>
@@ -17809,7 +17788,6 @@
     </row>
     <row r="542" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B542" s="16"/>
-      <c r="C542" s="37"/>
       <c r="E542" s="1">
         <v>7</v>
       </c>
@@ -17869,7 +17847,6 @@
       <c r="B545" s="16" t="s">
         <v>1404</v>
       </c>
-      <c r="C545" s="37"/>
       <c r="E545" s="1">
         <v>2</v>
       </c>
@@ -17885,7 +17862,6 @@
     </row>
     <row r="546" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B546" s="16"/>
-      <c r="C546" s="37"/>
       <c r="E546" s="1">
         <v>3</v>
       </c>
@@ -17899,7 +17875,6 @@
     </row>
     <row r="547" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B547" s="16"/>
-      <c r="C547" s="37"/>
       <c r="E547" s="1">
         <v>4</v>
       </c>
@@ -17915,7 +17890,6 @@
     </row>
     <row r="548" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B548" s="16"/>
-      <c r="C548" s="37"/>
       <c r="E548" s="1">
         <v>5</v>
       </c>
@@ -17979,7 +17953,6 @@
       <c r="B551" s="16" t="s">
         <v>1413</v>
       </c>
-      <c r="C551" s="37"/>
       <c r="E551" s="1">
         <v>2</v>
       </c>
@@ -17995,7 +17968,6 @@
     </row>
     <row r="552" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B552" s="16"/>
-      <c r="C552" s="37"/>
       <c r="E552" s="1">
         <v>3</v>
       </c>
@@ -18011,7 +17983,6 @@
     </row>
     <row r="553" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B553" s="23"/>
-      <c r="C553" s="37"/>
       <c r="E553" s="1">
         <v>4</v>
       </c>
@@ -18027,7 +17998,6 @@
     </row>
     <row r="554" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B554" s="23"/>
-      <c r="C554" s="37"/>
       <c r="E554" s="1">
         <v>5</v>
       </c>
@@ -18043,7 +18013,6 @@
     </row>
     <row r="555" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B555" s="16"/>
-      <c r="C555" s="37"/>
       <c r="D555" s="10"/>
       <c r="E555" s="10">
         <v>6</v>
@@ -18093,7 +18062,6 @@
       <c r="B557" s="16" t="s">
         <v>1423</v>
       </c>
-      <c r="C557" s="37"/>
       <c r="E557" s="1">
         <v>2</v>
       </c>
@@ -18107,7 +18075,6 @@
     </row>
     <row r="558" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B558" s="16"/>
-      <c r="C558" s="37"/>
       <c r="E558" s="1">
         <v>3</v>
       </c>
@@ -18123,7 +18090,6 @@
     </row>
     <row r="559" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B559" s="16"/>
-      <c r="C559" s="37"/>
       <c r="E559" s="1">
         <v>4</v>
       </c>
@@ -18139,7 +18105,6 @@
     </row>
     <row r="560" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B560" s="16"/>
-      <c r="C560" s="37"/>
       <c r="E560" s="1">
         <v>5</v>
       </c>
@@ -18201,7 +18166,6 @@
       <c r="B563" s="16" t="s">
         <v>1432</v>
       </c>
-      <c r="C563" s="37"/>
       <c r="E563" s="1">
         <v>2</v>
       </c>
@@ -18215,7 +18179,6 @@
     </row>
     <row r="564" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B564" s="16"/>
-      <c r="C564" s="37"/>
       <c r="E564" s="1">
         <v>3</v>
       </c>
@@ -18231,7 +18194,6 @@
     </row>
     <row r="565" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B565" s="16"/>
-      <c r="C565" s="37"/>
       <c r="E565" s="1">
         <v>4</v>
       </c>
@@ -18247,7 +18209,6 @@
     </row>
     <row r="566" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B566" s="16"/>
-      <c r="C566" s="37"/>
       <c r="E566" s="1">
         <v>5</v>
       </c>
@@ -18261,7 +18222,6 @@
     </row>
     <row r="567" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B567" s="16"/>
-      <c r="C567" s="37"/>
       <c r="E567" s="1">
         <v>6</v>
       </c>
@@ -18277,7 +18237,6 @@
     </row>
     <row r="568" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B568" s="16"/>
-      <c r="C568" s="37"/>
       <c r="E568" s="1">
         <v>7</v>
       </c>
@@ -18339,7 +18298,6 @@
       <c r="B571" s="16" t="s">
         <v>1442</v>
       </c>
-      <c r="C571" s="37"/>
       <c r="E571" s="1">
         <v>2</v>
       </c>
@@ -18355,7 +18313,6 @@
     </row>
     <row r="572" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B572" s="16"/>
-      <c r="C572" s="37"/>
       <c r="E572" s="1">
         <v>3</v>
       </c>
@@ -18371,7 +18328,6 @@
     </row>
     <row r="573" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B573" s="16"/>
-      <c r="C573" s="37"/>
       <c r="E573" s="1">
         <v>4</v>
       </c>
@@ -18387,7 +18343,6 @@
     </row>
     <row r="574" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B574" s="16"/>
-      <c r="C574" s="37"/>
       <c r="E574" s="1">
         <v>5</v>
       </c>
@@ -18403,7 +18358,6 @@
     </row>
     <row r="575" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B575" s="16"/>
-      <c r="C575" s="37"/>
       <c r="E575" s="1">
         <v>6</v>
       </c>
@@ -18465,7 +18419,6 @@
       <c r="B578" s="16" t="s">
         <v>1453</v>
       </c>
-      <c r="C578" s="37"/>
       <c r="E578" s="1">
         <v>2</v>
       </c>
@@ -18481,7 +18434,6 @@
     </row>
     <row r="579" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B579" s="16"/>
-      <c r="C579" s="37"/>
       <c r="E579" s="1">
         <v>3</v>
       </c>
@@ -18497,7 +18449,6 @@
     </row>
     <row r="580" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B580" s="16"/>
-      <c r="C580" s="37"/>
       <c r="E580" s="1">
         <v>4</v>
       </c>
@@ -18513,7 +18464,6 @@
     </row>
     <row r="581" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B581" s="16"/>
-      <c r="C581" s="37"/>
       <c r="E581" s="1">
         <v>5</v>
       </c>
@@ -18577,7 +18527,6 @@
       <c r="B584" s="16" t="s">
         <v>1462</v>
       </c>
-      <c r="C584" s="37"/>
       <c r="E584" s="1">
         <v>2</v>
       </c>
@@ -18593,7 +18542,6 @@
     </row>
     <row r="585" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B585" s="16"/>
-      <c r="C585" s="37"/>
       <c r="E585" s="1">
         <v>3</v>
       </c>
@@ -18609,7 +18557,6 @@
     </row>
     <row r="586" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B586" s="16"/>
-      <c r="C586" s="37"/>
       <c r="E586" s="1">
         <v>4</v>
       </c>
@@ -18625,7 +18572,6 @@
     </row>
     <row r="587" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B587" s="16"/>
-      <c r="C587" s="37"/>
       <c r="E587" s="1">
         <v>5</v>
       </c>
@@ -18689,7 +18635,6 @@
       <c r="B590" s="16" t="s">
         <v>1472</v>
       </c>
-      <c r="C590" s="37"/>
       <c r="E590" s="1">
         <v>2</v>
       </c>
@@ -18705,7 +18650,6 @@
     </row>
     <row r="591" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B591" s="16"/>
-      <c r="C591" s="37"/>
       <c r="E591" s="1">
         <v>3</v>
       </c>
@@ -18721,7 +18665,6 @@
     </row>
     <row r="592" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B592" s="16"/>
-      <c r="C592" s="37"/>
       <c r="E592" s="1">
         <v>4</v>
       </c>
@@ -18737,7 +18680,6 @@
     </row>
     <row r="593" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B593" s="16"/>
-      <c r="C593" s="37"/>
       <c r="E593" s="1">
         <v>5</v>
       </c>
@@ -18797,7 +18739,6 @@
       <c r="B596" s="16" t="s">
         <v>1482</v>
       </c>
-      <c r="C596" s="37"/>
       <c r="E596" s="1">
         <v>2</v>
       </c>
@@ -18813,7 +18754,6 @@
     </row>
     <row r="597" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B597" s="16"/>
-      <c r="C597" s="37"/>
       <c r="E597" s="1">
         <v>3</v>
       </c>
@@ -18829,7 +18769,6 @@
     </row>
     <row r="598" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B598" s="16"/>
-      <c r="C598" s="37"/>
       <c r="E598" s="1">
         <v>4</v>
       </c>
@@ -18845,7 +18784,6 @@
     </row>
     <row r="599" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B599" s="16"/>
-      <c r="C599" s="37"/>
       <c r="E599" s="1">
         <v>5</v>
       </c>
@@ -18905,7 +18843,6 @@
       <c r="B602" s="16" t="s">
         <v>1492</v>
       </c>
-      <c r="C602" s="37"/>
       <c r="E602" s="1">
         <v>2</v>
       </c>
@@ -18921,7 +18858,6 @@
     </row>
     <row r="603" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B603" s="16"/>
-      <c r="C603" s="37"/>
       <c r="E603" s="1">
         <v>3</v>
       </c>
@@ -18937,7 +18873,6 @@
     </row>
     <row r="604" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B604" s="16"/>
-      <c r="C604" s="37"/>
       <c r="E604" s="1">
         <v>4</v>
       </c>
@@ -18951,7 +18886,6 @@
     </row>
     <row r="605" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B605" s="16"/>
-      <c r="C605" s="37"/>
       <c r="E605" s="1">
         <v>5</v>
       </c>
@@ -19015,7 +18949,6 @@
       <c r="B608" s="16" t="s">
         <v>1501</v>
       </c>
-      <c r="C608" s="37"/>
       <c r="E608" s="1">
         <v>2</v>
       </c>
@@ -19029,7 +18962,6 @@
     </row>
     <row r="609" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B609" s="16"/>
-      <c r="C609" s="37"/>
       <c r="E609" s="1">
         <v>3</v>
       </c>
@@ -19183,10 +19115,10 @@
       <c r="J9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="37" t="s">
         <v>32</v>
       </c>
     </row>
@@ -19209,10 +19141,10 @@
       <c r="J10" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="39" t="s">
+      <c r="M10" s="37" t="s">
         <v>42</v>
       </c>
     </row>
@@ -19236,10 +19168,10 @@
       <c r="J11" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="M11" s="39" t="s">
+      <c r="M11" s="37" t="s">
         <v>53</v>
       </c>
     </row>
@@ -19256,10 +19188,10 @@
       <c r="J12" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="L12" s="39" t="s">
+      <c r="L12" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="39" t="s">
+      <c r="M12" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -19276,10 +19208,10 @@
       <c r="J13" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="M13" s="39" t="s">
+      <c r="M13" s="37" t="s">
         <v>63</v>
       </c>
     </row>
@@ -19296,10 +19228,10 @@
       <c r="J14" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="M14" s="37" t="s">
         <v>69</v>
       </c>
     </row>
@@ -19316,10 +19248,10 @@
       <c r="J15" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="37" t="s">
         <v>74</v>
       </c>
     </row>
@@ -19336,10 +19268,10 @@
       <c r="J16" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="L16" s="39" t="s">
+      <c r="L16" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="37" t="s">
         <v>79</v>
       </c>
     </row>
@@ -19356,10 +19288,10 @@
       <c r="J17" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="M17" s="39" t="s">
+      <c r="M17" s="37" t="s">
         <v>85</v>
       </c>
     </row>
@@ -19376,10 +19308,10 @@
       <c r="J18" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="L18" s="39" t="s">
+      <c r="L18" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="M18" s="39" t="s">
+      <c r="M18" s="37" t="s">
         <v>90</v>
       </c>
     </row>
@@ -19396,10 +19328,10 @@
       <c r="J19" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="L19" s="39" t="s">
+      <c r="L19" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="M19" s="39" t="s">
+      <c r="M19" s="37" t="s">
         <v>96</v>
       </c>
     </row>
@@ -19416,10 +19348,10 @@
       <c r="J20" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="L20" s="39" t="s">
+      <c r="L20" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="M20" s="39" t="s">
+      <c r="M20" s="37" t="s">
         <v>102</v>
       </c>
     </row>
@@ -19436,10 +19368,10 @@
       <c r="J21" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="M21" s="39" t="s">
+      <c r="M21" s="37" t="s">
         <v>113</v>
       </c>
     </row>
@@ -19456,10 +19388,10 @@
       <c r="J22" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="M22" s="39" t="s">
+      <c r="M22" s="37" t="s">
         <v>120</v>
       </c>
     </row>
@@ -19476,10 +19408,10 @@
       <c r="J23" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="L23" s="39" t="s">
+      <c r="L23" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="M23" s="39" t="s">
+      <c r="M23" s="37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -19496,10 +19428,10 @@
       <c r="J24" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="L24" s="39" t="s">
+      <c r="L24" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="M24" s="39" t="s">
+      <c r="M24" s="37" t="s">
         <v>130</v>
       </c>
     </row>
@@ -19516,10 +19448,10 @@
       <c r="J25" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="L25" s="39" t="s">
+      <c r="L25" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="M25" s="39" t="s">
+      <c r="M25" s="37" t="s">
         <v>136</v>
       </c>
     </row>
@@ -19536,10 +19468,10 @@
       <c r="J26" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="L26" s="39" t="s">
+      <c r="L26" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="M26" s="39" t="s">
+      <c r="M26" s="37" t="s">
         <v>152</v>
       </c>
     </row>
@@ -19556,10 +19488,10 @@
       <c r="J27" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="L27" s="39" t="s">
+      <c r="L27" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="M27" s="39" t="s">
+      <c r="M27" s="37" t="s">
         <v>157</v>
       </c>
     </row>
@@ -19576,10 +19508,10 @@
       <c r="J28" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="L28" s="39" t="s">
+      <c r="L28" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="M28" s="39" t="s">
+      <c r="M28" s="37" t="s">
         <v>162</v>
       </c>
     </row>
@@ -19596,10 +19528,10 @@
       <c r="J29" s="27" t="s">
         <v>502</v>
       </c>
-      <c r="L29" s="39" t="s">
+      <c r="L29" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="M29" s="39" t="s">
+      <c r="M29" s="37" t="s">
         <v>168</v>
       </c>
     </row>
@@ -19616,10 +19548,10 @@
       <c r="J30" s="27" t="s">
         <v>534</v>
       </c>
-      <c r="L30" s="39" t="s">
+      <c r="L30" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="M30" s="39" t="s">
+      <c r="M30" s="37" t="s">
         <v>178</v>
       </c>
     </row>
@@ -19636,10 +19568,10 @@
       <c r="J31" s="27" t="s">
         <v>539</v>
       </c>
-      <c r="L31" s="39" t="s">
+      <c r="L31" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="M31" s="39" t="s">
+      <c r="M31" s="37" t="s">
         <v>194</v>
       </c>
     </row>
@@ -19656,10 +19588,10 @@
       <c r="J32" s="27" t="s">
         <v>544</v>
       </c>
-      <c r="L32" s="39" t="s">
+      <c r="L32" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="M32" s="39" t="s">
+      <c r="M32" s="37" t="s">
         <v>200</v>
       </c>
     </row>
@@ -19676,10 +19608,10 @@
       <c r="J33" s="27" t="s">
         <v>549</v>
       </c>
-      <c r="L33" s="39" t="s">
+      <c r="L33" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="M33" s="39" t="s">
+      <c r="M33" s="37" t="s">
         <v>205</v>
       </c>
     </row>
@@ -19696,10 +19628,10 @@
       <c r="J34" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="L34" s="39" t="s">
+      <c r="L34" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="M34" s="39" t="s">
+      <c r="M34" s="37" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19716,10 +19648,10 @@
       <c r="J35" s="27" t="s">
         <v>571</v>
       </c>
-      <c r="L35" s="39" t="s">
+      <c r="L35" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="M35" s="39" t="s">
+      <c r="M35" s="37" t="s">
         <v>216</v>
       </c>
     </row>
@@ -19736,10 +19668,10 @@
       <c r="J36" s="27" t="s">
         <v>596</v>
       </c>
-      <c r="L36" s="39" t="s">
+      <c r="L36" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="M36" s="39" t="s">
+      <c r="M36" s="37" t="s">
         <v>221</v>
       </c>
     </row>
@@ -19756,10 +19688,10 @@
       <c r="J37" s="27" t="s">
         <v>611</v>
       </c>
-      <c r="L37" s="39" t="s">
+      <c r="L37" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="M37" s="39" t="s">
+      <c r="M37" s="37" t="s">
         <v>226</v>
       </c>
     </row>
@@ -19776,10 +19708,10 @@
       <c r="J38" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="L38" s="39" t="s">
+      <c r="L38" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="M38" s="39" t="s">
+      <c r="M38" s="37" t="s">
         <v>231</v>
       </c>
     </row>
@@ -19796,10 +19728,10 @@
       <c r="J39" s="27" t="s">
         <v>653</v>
       </c>
-      <c r="L39" s="39" t="s">
+      <c r="L39" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="M39" s="39" t="s">
+      <c r="M39" s="37" t="s">
         <v>237</v>
       </c>
     </row>
@@ -19816,10 +19748,10 @@
       <c r="J40" s="27" t="s">
         <v>665</v>
       </c>
-      <c r="L40" s="39" t="s">
+      <c r="L40" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="M40" s="39" t="s">
+      <c r="M40" s="37" t="s">
         <v>242</v>
       </c>
     </row>
@@ -19836,10 +19768,10 @@
       <c r="J41" s="27" t="s">
         <v>671</v>
       </c>
-      <c r="L41" s="39" t="s">
+      <c r="L41" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="M41" s="39" t="s">
+      <c r="M41" s="37" t="s">
         <v>247</v>
       </c>
     </row>
@@ -19856,10 +19788,10 @@
       <c r="J42" s="27" t="s">
         <v>719</v>
       </c>
-      <c r="L42" s="39" t="s">
+      <c r="L42" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="M42" s="39" t="s">
+      <c r="M42" s="37" t="s">
         <v>252</v>
       </c>
     </row>
@@ -19876,10 +19808,10 @@
       <c r="J43" s="27" t="s">
         <v>736</v>
       </c>
-      <c r="L43" s="39" t="s">
+      <c r="L43" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="M43" s="39" t="s">
+      <c r="M43" s="37" t="s">
         <v>264</v>
       </c>
     </row>
@@ -19897,10 +19829,10 @@
       <c r="J44" s="27" t="s">
         <v>741</v>
       </c>
-      <c r="L44" s="39" t="s">
+      <c r="L44" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="M44" s="39" t="s">
+      <c r="M44" s="37" t="s">
         <v>269</v>
       </c>
     </row>
@@ -19911,10 +19843,10 @@
       <c r="J45" s="27" t="s">
         <v>746</v>
       </c>
-      <c r="L45" s="39" t="s">
+      <c r="L45" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="M45" s="39" t="s">
+      <c r="M45" s="37" t="s">
         <v>275</v>
       </c>
     </row>
@@ -19925,10 +19857,10 @@
       <c r="J46" s="27" t="s">
         <v>757</v>
       </c>
-      <c r="L46" s="39" t="s">
+      <c r="L46" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="M46" s="39" t="s">
+      <c r="M46" s="37" t="s">
         <v>280</v>
       </c>
     </row>
@@ -19939,10 +19871,10 @@
       <c r="J47" s="27" t="s">
         <v>767</v>
       </c>
-      <c r="L47" s="39" t="s">
+      <c r="L47" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="M47" s="39" t="s">
+      <c r="M47" s="37" t="s">
         <v>287</v>
       </c>
     </row>
@@ -19953,10 +19885,10 @@
       <c r="J48" s="27" t="s">
         <v>777</v>
       </c>
-      <c r="L48" s="39" t="s">
+      <c r="L48" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="M48" s="39" t="s">
+      <c r="M48" s="37" t="s">
         <v>292</v>
       </c>
     </row>
@@ -19967,10 +19899,10 @@
       <c r="J49" s="27" t="s">
         <v>800</v>
       </c>
-      <c r="L49" s="39" t="s">
+      <c r="L49" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="M49" s="39" t="s">
+      <c r="M49" s="37" t="s">
         <v>304</v>
       </c>
     </row>
@@ -19981,10 +19913,10 @@
       <c r="J50" s="27" t="s">
         <v>810</v>
       </c>
-      <c r="L50" s="39" t="s">
+      <c r="L50" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="M50" s="39" t="s">
+      <c r="M50" s="37" t="s">
         <v>310</v>
       </c>
     </row>
@@ -19995,10 +19927,10 @@
       <c r="J51" s="27" t="s">
         <v>815</v>
       </c>
-      <c r="L51" s="39" t="s">
+      <c r="L51" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="M51" s="39" t="s">
+      <c r="M51" s="37" t="s">
         <v>328</v>
       </c>
     </row>
@@ -20009,10 +19941,10 @@
       <c r="J52" s="27" t="s">
         <v>820</v>
       </c>
-      <c r="L52" s="39" t="s">
+      <c r="L52" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="M52" s="39" t="s">
+      <c r="M52" s="37" t="s">
         <v>334</v>
       </c>
     </row>
@@ -20023,10 +19955,10 @@
       <c r="J53" s="27" t="s">
         <v>842</v>
       </c>
-      <c r="L53" s="39" t="s">
+      <c r="L53" s="37" t="s">
         <v>336</v>
       </c>
-      <c r="M53" s="39" t="s">
+      <c r="M53" s="37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -20037,10 +19969,10 @@
       <c r="J54" s="27" t="s">
         <v>847</v>
       </c>
-      <c r="L54" s="39" t="s">
+      <c r="L54" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="M54" s="39" t="s">
+      <c r="M54" s="37" t="s">
         <v>344</v>
       </c>
     </row>
@@ -20051,10 +19983,10 @@
       <c r="J55" s="27" t="s">
         <v>878</v>
       </c>
-      <c r="L55" s="39" t="s">
+      <c r="L55" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="M55" s="39" t="s">
+      <c r="M55" s="37" t="s">
         <v>349</v>
       </c>
     </row>
@@ -20065,10 +19997,10 @@
       <c r="J56" s="27" t="s">
         <v>893</v>
       </c>
-      <c r="L56" s="39" t="s">
+      <c r="L56" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="M56" s="39" t="s">
+      <c r="M56" s="37" t="s">
         <v>360</v>
       </c>
     </row>
@@ -20079,10 +20011,10 @@
       <c r="J57" s="27" t="s">
         <v>898</v>
       </c>
-      <c r="L57" s="39" t="s">
+      <c r="L57" s="37" t="s">
         <v>377</v>
       </c>
-      <c r="M57" s="39" t="s">
+      <c r="M57" s="37" t="s">
         <v>380</v>
       </c>
     </row>
@@ -20093,10 +20025,10 @@
       <c r="J58" s="27" t="s">
         <v>903</v>
       </c>
-      <c r="L58" s="39" t="s">
+      <c r="L58" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="M58" s="39" t="s">
+      <c r="M58" s="37" t="s">
         <v>391</v>
       </c>
     </row>
@@ -20107,10 +20039,10 @@
       <c r="J59" s="27" t="s">
         <v>908</v>
       </c>
-      <c r="L59" s="39" t="s">
+      <c r="L59" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="M59" s="39" t="s">
+      <c r="M59" s="37" t="s">
         <v>398</v>
       </c>
     </row>
@@ -20121,10 +20053,10 @@
       <c r="J60" s="27" t="s">
         <v>929</v>
       </c>
-      <c r="L60" s="39" t="s">
+      <c r="L60" s="37" t="s">
         <v>400</v>
       </c>
-      <c r="M60" s="39" t="s">
+      <c r="M60" s="37" t="s">
         <v>403</v>
       </c>
     </row>
@@ -20135,10 +20067,10 @@
       <c r="J61" s="27" t="s">
         <v>934</v>
       </c>
-      <c r="L61" s="39" t="s">
+      <c r="L61" s="37" t="s">
         <v>406</v>
       </c>
-      <c r="M61" s="39" t="s">
+      <c r="M61" s="37" t="s">
         <v>409</v>
       </c>
     </row>
@@ -20149,10 +20081,10 @@
       <c r="J62" s="27" t="s">
         <v>944</v>
       </c>
-      <c r="L62" s="39" t="s">
+      <c r="L62" s="37" t="s">
         <v>416</v>
       </c>
-      <c r="M62" s="39" t="s">
+      <c r="M62" s="37" t="s">
         <v>420</v>
       </c>
     </row>
@@ -20163,10 +20095,10 @@
       <c r="J63" s="27" t="s">
         <v>949</v>
       </c>
-      <c r="L63" s="39" t="s">
+      <c r="L63" s="37" t="s">
         <v>422</v>
       </c>
-      <c r="M63" s="39" t="s">
+      <c r="M63" s="37" t="s">
         <v>425</v>
       </c>
     </row>
@@ -20177,10 +20109,10 @@
       <c r="J64" s="27" t="s">
         <v>955</v>
       </c>
-      <c r="L64" s="39" t="s">
+      <c r="L64" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="M64" s="39" t="s">
+      <c r="M64" s="37" t="s">
         <v>430</v>
       </c>
     </row>
@@ -20191,10 +20123,10 @@
       <c r="J65" s="27" t="s">
         <v>965</v>
       </c>
-      <c r="L65" s="39" t="s">
+      <c r="L65" s="37" t="s">
         <v>432</v>
       </c>
-      <c r="M65" s="39" t="s">
+      <c r="M65" s="37" t="s">
         <v>436</v>
       </c>
     </row>
@@ -20205,10 +20137,10 @@
       <c r="J66" s="27" t="s">
         <v>970</v>
       </c>
-      <c r="L66" s="39" t="s">
+      <c r="L66" s="37" t="s">
         <v>438</v>
       </c>
-      <c r="M66" s="39" t="s">
+      <c r="M66" s="37" t="s">
         <v>442</v>
       </c>
     </row>
@@ -20219,10 +20151,10 @@
       <c r="J67" s="27" t="s">
         <v>975</v>
       </c>
-      <c r="L67" s="39" t="s">
+      <c r="L67" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="M67" s="39" t="s">
+      <c r="M67" s="37" t="s">
         <v>455</v>
       </c>
     </row>
@@ -20233,10 +20165,10 @@
       <c r="J68" s="27" t="s">
         <v>980</v>
       </c>
-      <c r="L68" s="39" t="s">
+      <c r="L68" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="M68" s="39" t="s">
+      <c r="M68" s="37" t="s">
         <v>466</v>
       </c>
     </row>
@@ -20247,10 +20179,10 @@
       <c r="J69" s="27" t="s">
         <v>985</v>
       </c>
-      <c r="L69" s="39" t="s">
+      <c r="L69" s="37" t="s">
         <v>468</v>
       </c>
-      <c r="M69" s="39" t="s">
+      <c r="M69" s="37" t="s">
         <v>471</v>
       </c>
     </row>
@@ -20261,10 +20193,10 @@
       <c r="J70" s="27" t="s">
         <v>990</v>
       </c>
-      <c r="L70" s="39" t="s">
+      <c r="L70" s="37" t="s">
         <v>473</v>
       </c>
-      <c r="M70" s="39" t="s">
+      <c r="M70" s="37" t="s">
         <v>476</v>
       </c>
     </row>
@@ -20275,10 +20207,10 @@
       <c r="J71" s="27" t="s">
         <v>1001</v>
       </c>
-      <c r="L71" s="39" t="s">
+      <c r="L71" s="37" t="s">
         <v>478</v>
       </c>
-      <c r="M71" s="39" t="s">
+      <c r="M71" s="37" t="s">
         <v>481</v>
       </c>
     </row>
@@ -20289,10 +20221,10 @@
       <c r="J72" s="27" t="s">
         <v>1017</v>
       </c>
-      <c r="L72" s="39" t="s">
+      <c r="L72" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="M72" s="39" t="s">
+      <c r="M72" s="37" t="s">
         <v>486</v>
       </c>
     </row>
@@ -20303,10 +20235,10 @@
       <c r="J73" s="27" t="s">
         <v>1048</v>
       </c>
-      <c r="L73" s="39" t="s">
+      <c r="L73" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="M73" s="39" t="s">
+      <c r="M73" s="37" t="s">
         <v>491</v>
       </c>
     </row>
@@ -20317,10 +20249,10 @@
       <c r="J74" s="27" t="s">
         <v>1068</v>
       </c>
-      <c r="L74" s="39" t="s">
+      <c r="L74" s="37" t="s">
         <v>494</v>
       </c>
-      <c r="M74" s="39" t="s">
+      <c r="M74" s="37" t="s">
         <v>497</v>
       </c>
     </row>
@@ -20331,10 +20263,10 @@
       <c r="J75" s="27" t="s">
         <v>1073</v>
       </c>
-      <c r="L75" s="39" t="s">
+      <c r="L75" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="M75" s="39" t="s">
+      <c r="M75" s="37" t="s">
         <v>508</v>
       </c>
     </row>
@@ -20345,10 +20277,10 @@
       <c r="J76" s="27" t="s">
         <v>1094</v>
       </c>
-      <c r="L76" s="39" t="s">
+      <c r="L76" s="37" t="s">
         <v>510</v>
       </c>
-      <c r="M76" s="39" t="s">
+      <c r="M76" s="37" t="s">
         <v>513</v>
       </c>
     </row>
@@ -20359,10 +20291,10 @@
       <c r="J77" s="27" t="s">
         <v>1109</v>
       </c>
-      <c r="L77" s="39" t="s">
+      <c r="L77" s="37" t="s">
         <v>515</v>
       </c>
-      <c r="M77" s="39" t="s">
+      <c r="M77" s="37" t="s">
         <v>518</v>
       </c>
     </row>
@@ -20373,10 +20305,10 @@
       <c r="J78" s="27" t="s">
         <v>1124</v>
       </c>
-      <c r="L78" s="39" t="s">
+      <c r="L78" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="M78" s="39" t="s">
+      <c r="M78" s="37" t="s">
         <v>524</v>
       </c>
     </row>
@@ -20387,10 +20319,10 @@
       <c r="J79" s="27" t="s">
         <v>1140</v>
       </c>
-      <c r="L79" s="39" t="s">
+      <c r="L79" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="M79" s="39" t="s">
+      <c r="M79" s="37" t="s">
         <v>529</v>
       </c>
     </row>
@@ -20401,10 +20333,10 @@
       <c r="J80" s="27" t="s">
         <v>1150</v>
       </c>
-      <c r="L80" s="39" t="s">
+      <c r="L80" s="37" t="s">
         <v>551</v>
       </c>
-      <c r="M80" s="39" t="s">
+      <c r="M80" s="37" t="s">
         <v>554</v>
       </c>
     </row>
@@ -20415,10 +20347,10 @@
       <c r="J81" s="27" t="s">
         <v>1165</v>
       </c>
-      <c r="L81" s="39" t="s">
+      <c r="L81" s="37" t="s">
         <v>556</v>
       </c>
-      <c r="M81" s="39" t="s">
+      <c r="M81" s="37" t="s">
         <v>560</v>
       </c>
     </row>
@@ -20429,10 +20361,10 @@
       <c r="J82" s="27" t="s">
         <v>1212</v>
       </c>
-      <c r="L82" s="39" t="s">
+      <c r="L82" s="37" t="s">
         <v>573</v>
       </c>
-      <c r="M82" s="39" t="s">
+      <c r="M82" s="37" t="s">
         <v>576</v>
       </c>
     </row>
@@ -20443,10 +20375,10 @@
       <c r="J83" s="27" t="s">
         <v>1237</v>
       </c>
-      <c r="L83" s="39" t="s">
+      <c r="L83" s="37" t="s">
         <v>578</v>
       </c>
-      <c r="M83" s="39" t="s">
+      <c r="M83" s="37" t="s">
         <v>581</v>
       </c>
     </row>
@@ -20457,10 +20389,10 @@
       <c r="J84" s="27" t="s">
         <v>1248</v>
       </c>
-      <c r="L84" s="39" t="s">
+      <c r="L84" s="37" t="s">
         <v>583</v>
       </c>
-      <c r="M84" s="39" t="s">
+      <c r="M84" s="37" t="s">
         <v>586</v>
       </c>
     </row>
@@ -20471,10 +20403,10 @@
       <c r="J85" s="27" t="s">
         <v>1302</v>
       </c>
-      <c r="L85" s="39" t="s">
+      <c r="L85" s="37" t="s">
         <v>588</v>
       </c>
-      <c r="M85" s="39" t="s">
+      <c r="M85" s="37" t="s">
         <v>591</v>
       </c>
     </row>
@@ -20485,10 +20417,10 @@
       <c r="J86" s="27" t="s">
         <v>1327</v>
       </c>
-      <c r="L86" s="39" t="s">
+      <c r="L86" s="37" t="s">
         <v>598</v>
       </c>
-      <c r="M86" s="39" t="s">
+      <c r="M86" s="37" t="s">
         <v>601</v>
       </c>
     </row>
@@ -20499,10 +20431,10 @@
       <c r="J87" s="27" t="s">
         <v>1337</v>
       </c>
-      <c r="L87" s="39" t="s">
+      <c r="L87" s="37" t="s">
         <v>603</v>
       </c>
-      <c r="M87" s="39" t="s">
+      <c r="M87" s="37" t="s">
         <v>606</v>
       </c>
     </row>
@@ -20513,10 +20445,10 @@
       <c r="J88" s="27" t="s">
         <v>1342</v>
       </c>
-      <c r="L88" s="39" t="s">
+      <c r="L88" s="37" t="s">
         <v>613</v>
       </c>
-      <c r="M88" s="39" t="s">
+      <c r="M88" s="37" t="s">
         <v>616</v>
       </c>
     </row>
@@ -20527,10 +20459,10 @@
       <c r="J89" s="27" t="s">
         <v>1363</v>
       </c>
-      <c r="L89" s="39" t="s">
+      <c r="L89" s="37" t="s">
         <v>618</v>
       </c>
-      <c r="M89" s="39" t="s">
+      <c r="M89" s="37" t="s">
         <v>621</v>
       </c>
     </row>
@@ -20541,10 +20473,10 @@
       <c r="J90" s="27" t="s">
         <v>1384</v>
       </c>
-      <c r="L90" s="39" t="s">
+      <c r="L90" s="37" t="s">
         <v>623</v>
       </c>
-      <c r="M90" s="39" t="s">
+      <c r="M90" s="37" t="s">
         <v>626</v>
       </c>
     </row>
@@ -20555,10 +20487,10 @@
       <c r="J91" s="27" t="s">
         <v>1413</v>
       </c>
-      <c r="L91" s="39" t="s">
+      <c r="L91" s="37" t="s">
         <v>628</v>
       </c>
-      <c r="M91" s="39" t="s">
+      <c r="M91" s="37" t="s">
         <v>631</v>
       </c>
     </row>
@@ -20569,10 +20501,10 @@
       <c r="J92" s="27" t="s">
         <v>1442</v>
       </c>
-      <c r="L92" s="39" t="s">
+      <c r="L92" s="37" t="s">
         <v>638</v>
       </c>
-      <c r="M92" s="39" t="s">
+      <c r="M92" s="37" t="s">
         <v>641</v>
       </c>
     </row>
@@ -20583,10 +20515,10 @@
       <c r="J93" s="27" t="s">
         <v>1462</v>
       </c>
-      <c r="L93" s="39" t="s">
+      <c r="L93" s="37" t="s">
         <v>643</v>
       </c>
-      <c r="M93" s="39" t="s">
+      <c r="M93" s="37" t="s">
         <v>647</v>
       </c>
     </row>
@@ -20597,10 +20529,10 @@
       <c r="J94" s="27" t="s">
         <v>1472</v>
       </c>
-      <c r="L94" s="39" t="s">
+      <c r="L94" s="37" t="s">
         <v>655</v>
       </c>
-      <c r="M94" s="39" t="s">
+      <c r="M94" s="37" t="s">
         <v>659</v>
       </c>
     </row>
@@ -20611,10 +20543,10 @@
       <c r="J95" s="27" t="s">
         <v>1482</v>
       </c>
-      <c r="L95" s="39" t="s">
+      <c r="L95" s="37" t="s">
         <v>673</v>
       </c>
-      <c r="M95" s="39" t="s">
+      <c r="M95" s="37" t="s">
         <v>676</v>
       </c>
     </row>
@@ -20625,714 +20557,714 @@
       <c r="J96" s="27" t="s">
         <v>1492</v>
       </c>
-      <c r="L96" s="39" t="s">
+      <c r="L96" s="37" t="s">
         <v>679</v>
       </c>
-      <c r="M96" s="39" t="s">
+      <c r="M96" s="37" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="97" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L97" s="39" t="s">
+      <c r="L97" s="37" t="s">
         <v>686</v>
       </c>
-      <c r="M97" s="39" t="s">
+      <c r="M97" s="37" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="98" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L98" s="39" t="s">
+      <c r="L98" s="37" t="s">
         <v>692</v>
       </c>
-      <c r="M98" s="39" t="s">
+      <c r="M98" s="37" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="99" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L99" s="39" t="s">
+      <c r="L99" s="37" t="s">
         <v>698</v>
       </c>
-      <c r="M99" s="39" t="s">
+      <c r="M99" s="37" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="100" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L100" s="39" t="s">
+      <c r="L100" s="37" t="s">
         <v>704</v>
       </c>
-      <c r="M100" s="39" t="s">
+      <c r="M100" s="37" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="101" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L101" s="39" t="s">
+      <c r="L101" s="37" t="s">
         <v>709</v>
       </c>
-      <c r="M101" s="39" t="s">
+      <c r="M101" s="37" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="102" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L102" s="39" t="s">
+      <c r="L102" s="37" t="s">
         <v>721</v>
       </c>
-      <c r="M102" s="39" t="s">
+      <c r="M102" s="37" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="103" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L103" s="39" t="s">
+      <c r="L103" s="37" t="s">
         <v>728</v>
       </c>
-      <c r="M103" s="39" t="s">
+      <c r="M103" s="37" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="104" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L104" s="39" t="s">
+      <c r="L104" s="37" t="s">
         <v>748</v>
       </c>
-      <c r="M104" s="39" t="s">
+      <c r="M104" s="37" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="105" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L105" s="39" t="s">
+      <c r="L105" s="37" t="s">
         <v>759</v>
       </c>
-      <c r="M105" s="39" t="s">
+      <c r="M105" s="37" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="106" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L106" s="39" t="s">
+      <c r="L106" s="37" t="s">
         <v>769</v>
       </c>
-      <c r="M106" s="39" t="s">
+      <c r="M106" s="37" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="107" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L107" s="39" t="s">
+      <c r="L107" s="37" t="s">
         <v>779</v>
       </c>
-      <c r="M107" s="39" t="s">
+      <c r="M107" s="37" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="108" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L108" s="39" t="s">
+      <c r="L108" s="37" t="s">
         <v>784</v>
       </c>
-      <c r="M108" s="39" t="s">
+      <c r="M108" s="37" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="109" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L109" s="39" t="s">
+      <c r="L109" s="37" t="s">
         <v>790</v>
       </c>
-      <c r="M109" s="39" t="s">
+      <c r="M109" s="37" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="110" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L110" s="39" t="s">
+      <c r="L110" s="37" t="s">
         <v>802</v>
       </c>
-      <c r="M110" s="39" t="s">
+      <c r="M110" s="37" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="111" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L111" s="39" t="s">
+      <c r="L111" s="37" t="s">
         <v>822</v>
       </c>
-      <c r="M111" s="39" t="s">
+      <c r="M111" s="37" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="112" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L112" s="39" t="s">
+      <c r="L112" s="37" t="s">
         <v>827</v>
       </c>
-      <c r="M112" s="39" t="s">
+      <c r="M112" s="37" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="113" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L113" s="39" t="s">
+      <c r="L113" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="M113" s="39" t="s">
+      <c r="M113" s="37" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="114" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L114" s="39" t="s">
+      <c r="L114" s="37" t="s">
         <v>849</v>
       </c>
-      <c r="M114" s="39" t="s">
+      <c r="M114" s="37" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="115" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L115" s="39" t="s">
+      <c r="L115" s="37" t="s">
         <v>854</v>
       </c>
-      <c r="M115" s="39" t="s">
+      <c r="M115" s="37" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="116" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L116" s="39" t="s">
+      <c r="L116" s="37" t="s">
         <v>859</v>
       </c>
-      <c r="M116" s="39" t="s">
+      <c r="M116" s="37" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="117" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L117" s="39" t="s">
+      <c r="L117" s="37" t="s">
         <v>865</v>
       </c>
-      <c r="M117" s="39" t="s">
+      <c r="M117" s="37" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="118" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L118" s="39" t="s">
+      <c r="L118" s="37" t="s">
         <v>870</v>
       </c>
-      <c r="M118" s="39" t="s">
+      <c r="M118" s="37" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="119" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L119" s="39" t="s">
+      <c r="L119" s="37" t="s">
         <v>880</v>
       </c>
-      <c r="M119" s="39" t="s">
+      <c r="M119" s="37" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="120" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L120" s="39" t="s">
+      <c r="L120" s="37" t="s">
         <v>885</v>
       </c>
-      <c r="M120" s="39" t="s">
+      <c r="M120" s="37" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="121" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L121" s="39" t="s">
+      <c r="L121" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="M121" s="39" t="s">
+      <c r="M121" s="37" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="122" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L122" s="39" t="s">
+      <c r="L122" s="37" t="s">
         <v>915</v>
       </c>
-      <c r="M122" s="39" t="s">
+      <c r="M122" s="37" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="123" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L123" s="39" t="s">
+      <c r="L123" s="37" t="s">
         <v>920</v>
       </c>
-      <c r="M123" s="39" t="s">
+      <c r="M123" s="37" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="124" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L124" s="39" t="s">
+      <c r="L124" s="37" t="s">
         <v>936</v>
       </c>
-      <c r="M124" s="39" t="s">
+      <c r="M124" s="37" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="125" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L125" s="39" t="s">
+      <c r="L125" s="37" t="s">
         <v>957</v>
       </c>
-      <c r="M125" s="39" t="s">
+      <c r="M125" s="37" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="126" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L126" s="39" t="s">
+      <c r="L126" s="37" t="s">
         <v>992</v>
       </c>
-      <c r="M126" s="39" t="s">
+      <c r="M126" s="37" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="127" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L127" s="39" t="s">
+      <c r="L127" s="37" t="s">
         <v>1003</v>
       </c>
-      <c r="M127" s="39" t="s">
+      <c r="M127" s="37" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="128" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L128" s="39" t="s">
+      <c r="L128" s="37" t="s">
         <v>1009</v>
       </c>
-      <c r="M128" s="39" t="s">
+      <c r="M128" s="37" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="129" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L129" s="39" t="s">
+      <c r="L129" s="37" t="s">
         <v>1020</v>
       </c>
-      <c r="M129" s="39" t="s">
+      <c r="M129" s="37" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="130" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L130" s="39" t="s">
+      <c r="L130" s="37" t="s">
         <v>1025</v>
       </c>
-      <c r="M130" s="39" t="s">
+      <c r="M130" s="37" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="131" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L131" s="39" t="s">
+      <c r="L131" s="37" t="s">
         <v>1030</v>
       </c>
-      <c r="M131" s="39" t="s">
+      <c r="M131" s="37" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="132" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L132" s="39" t="s">
+      <c r="L132" s="37" t="s">
         <v>1035</v>
       </c>
-      <c r="M132" s="39" t="s">
+      <c r="M132" s="37" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="133" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L133" s="39" t="s">
+      <c r="L133" s="37" t="s">
         <v>1040</v>
       </c>
-      <c r="M133" s="39" t="s">
+      <c r="M133" s="37" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="134" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L134" s="39" t="s">
+      <c r="L134" s="37" t="s">
         <v>1050</v>
       </c>
-      <c r="M134" s="39" t="s">
+      <c r="M134" s="37" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="135" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L135" s="39" t="s">
+      <c r="L135" s="37" t="s">
         <v>1055</v>
       </c>
-      <c r="M135" s="39" t="s">
+      <c r="M135" s="37" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="136" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L136" s="39" t="s">
+      <c r="L136" s="37" t="s">
         <v>1060</v>
       </c>
-      <c r="M136" s="39" t="s">
+      <c r="M136" s="37" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="137" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L137" s="39" t="s">
+      <c r="L137" s="37" t="s">
         <v>1075</v>
       </c>
-      <c r="M137" s="39" t="s">
+      <c r="M137" s="37" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="138" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L138" s="39" t="s">
+      <c r="L138" s="37" t="s">
         <v>1080</v>
       </c>
-      <c r="M138" s="39" t="s">
+      <c r="M138" s="37" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="139" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L139" s="39" t="s">
+      <c r="L139" s="37" t="s">
         <v>1085</v>
       </c>
-      <c r="M139" s="39" t="s">
+      <c r="M139" s="37" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="140" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L140" s="39" t="s">
+      <c r="L140" s="37" t="s">
         <v>1096</v>
       </c>
-      <c r="M140" s="39" t="s">
+      <c r="M140" s="37" t="s">
         <v>1099</v>
       </c>
     </row>
     <row r="141" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L141" s="39" t="s">
+      <c r="L141" s="37" t="s">
         <v>1101</v>
       </c>
-      <c r="M141" s="39" t="s">
+      <c r="M141" s="37" t="s">
         <v>1104</v>
       </c>
     </row>
     <row r="142" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L142" s="39" t="s">
+      <c r="L142" s="37" t="s">
         <v>1111</v>
       </c>
-      <c r="M142" s="39" t="s">
+      <c r="M142" s="37" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="143" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L143" s="39" t="s">
+      <c r="L143" s="37" t="s">
         <v>1116</v>
       </c>
-      <c r="M143" s="39" t="s">
+      <c r="M143" s="37" t="s">
         <v>1119</v>
       </c>
     </row>
     <row r="144" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L144" s="39" t="s">
+      <c r="L144" s="37" t="s">
         <v>1127</v>
       </c>
-      <c r="M144" s="39" t="s">
+      <c r="M144" s="37" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="145" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L145" s="39" t="s">
+      <c r="L145" s="37" t="s">
         <v>1132</v>
       </c>
-      <c r="M145" s="39" t="s">
+      <c r="M145" s="37" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="146" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L146" s="39" t="s">
+      <c r="L146" s="37" t="s">
         <v>1142</v>
       </c>
-      <c r="M146" s="39" t="s">
+      <c r="M146" s="37" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="147" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L147" s="39" t="s">
+      <c r="L147" s="37" t="s">
         <v>1152</v>
       </c>
-      <c r="M147" s="39" t="s">
+      <c r="M147" s="37" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="148" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L148" s="39" t="s">
+      <c r="L148" s="37" t="s">
         <v>1157</v>
       </c>
-      <c r="M148" s="39" t="s">
+      <c r="M148" s="37" t="s">
         <v>1160</v>
       </c>
     </row>
     <row r="149" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L149" s="39" t="s">
+      <c r="L149" s="37" t="s">
         <v>1167</v>
       </c>
-      <c r="M149" s="39" t="s">
+      <c r="M149" s="37" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="150" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L150" s="39" t="s">
+      <c r="L150" s="37" t="s">
         <v>1172</v>
       </c>
-      <c r="M150" s="39" t="s">
+      <c r="M150" s="37" t="s">
         <v>1175</v>
       </c>
     </row>
     <row r="151" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L151" s="39" t="s">
+      <c r="L151" s="37" t="s">
         <v>1177</v>
       </c>
-      <c r="M151" s="39" t="s">
+      <c r="M151" s="37" t="s">
         <v>1181</v>
       </c>
     </row>
     <row r="152" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L152" s="39" t="s">
+      <c r="L152" s="37" t="s">
         <v>1183</v>
       </c>
-      <c r="M152" s="39" t="s">
+      <c r="M152" s="37" t="s">
         <v>1186</v>
       </c>
     </row>
     <row r="153" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L153" s="39" t="s">
+      <c r="L153" s="37" t="s">
         <v>1188</v>
       </c>
-      <c r="M153" s="39" t="s">
+      <c r="M153" s="37" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="154" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L154" s="39" t="s">
+      <c r="L154" s="37" t="s">
         <v>1193</v>
       </c>
-      <c r="M154" s="39" t="s">
+      <c r="M154" s="37" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="155" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L155" s="39" t="s">
+      <c r="L155" s="37" t="s">
         <v>1198</v>
       </c>
-      <c r="M155" s="39" t="s">
+      <c r="M155" s="37" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="156" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L156" s="39" t="s">
+      <c r="L156" s="37" t="s">
         <v>1204</v>
       </c>
-      <c r="M156" s="39" t="s">
+      <c r="M156" s="37" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="157" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L157" s="39" t="s">
+      <c r="L157" s="37" t="s">
         <v>1214</v>
       </c>
-      <c r="M157" s="39" t="s">
+      <c r="M157" s="37" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="158" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L158" s="39" t="s">
+      <c r="L158" s="37" t="s">
         <v>1219</v>
       </c>
-      <c r="M158" s="39" t="s">
+      <c r="M158" s="37" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="159" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L159" s="39" t="s">
+      <c r="L159" s="37" t="s">
         <v>1224</v>
       </c>
-      <c r="M159" s="39" t="s">
+      <c r="M159" s="37" t="s">
         <v>1227</v>
       </c>
     </row>
     <row r="160" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L160" s="39" t="s">
+      <c r="L160" s="37" t="s">
         <v>1229</v>
       </c>
-      <c r="M160" s="39" t="s">
+      <c r="M160" s="37" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="161" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L161" s="39" t="s">
+      <c r="L161" s="37" t="s">
         <v>1240</v>
       </c>
-      <c r="M161" s="39" t="s">
+      <c r="M161" s="37" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="162" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L162" s="39" t="s">
+      <c r="L162" s="37" t="s">
         <v>1250</v>
       </c>
-      <c r="M162" s="39" t="s">
+      <c r="M162" s="37" t="s">
         <v>1253</v>
       </c>
     </row>
     <row r="163" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L163" s="39" t="s">
+      <c r="L163" s="37" t="s">
         <v>1256</v>
       </c>
-      <c r="M163" s="39" t="s">
+      <c r="M163" s="37" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="164" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L164" s="39" t="s">
+      <c r="L164" s="37" t="s">
         <v>1261</v>
       </c>
-      <c r="M164" s="39" t="s">
+      <c r="M164" s="37" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="165" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L165" s="39" t="s">
+      <c r="L165" s="37" t="s">
         <v>1267</v>
       </c>
-      <c r="M165" s="39" t="s">
+      <c r="M165" s="37" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="166" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L166" s="39" t="s">
+      <c r="L166" s="37" t="s">
         <v>1272</v>
       </c>
-      <c r="M166" s="39" t="s">
+      <c r="M166" s="37" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="167" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L167" s="39" t="s">
+      <c r="L167" s="37" t="s">
         <v>1277</v>
       </c>
-      <c r="M167" s="39" t="s">
+      <c r="M167" s="37" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="168" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L168" s="39" t="s">
+      <c r="L168" s="37" t="s">
         <v>1283</v>
       </c>
-      <c r="M168" s="39" t="s">
+      <c r="M168" s="37" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="169" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L169" s="39" t="s">
+      <c r="L169" s="37" t="s">
         <v>1288</v>
       </c>
-      <c r="M169" s="39" t="s">
+      <c r="M169" s="37" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="170" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L170" s="39" t="s">
+      <c r="L170" s="37" t="s">
         <v>1293</v>
       </c>
-      <c r="M170" s="39" t="s">
+      <c r="M170" s="37" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="171" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L171" s="39" t="s">
+      <c r="L171" s="37" t="s">
         <v>1304</v>
       </c>
-      <c r="M171" s="39" t="s">
+      <c r="M171" s="37" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="172" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L172" s="39" t="s">
+      <c r="L172" s="37" t="s">
         <v>1309</v>
       </c>
-      <c r="M172" s="39" t="s">
+      <c r="M172" s="37" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="173" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L173" s="39" t="s">
+      <c r="L173" s="37" t="s">
         <v>1314</v>
       </c>
-      <c r="M173" s="39" t="s">
+      <c r="M173" s="37" t="s">
         <v>1317</v>
       </c>
     </row>
     <row r="174" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L174" s="39" t="s">
+      <c r="L174" s="37" t="s">
         <v>1319</v>
       </c>
-      <c r="M174" s="39" t="s">
+      <c r="M174" s="37" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="175" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L175" s="39" t="s">
+      <c r="L175" s="37" t="s">
         <v>1329</v>
       </c>
-      <c r="M175" s="39" t="s">
+      <c r="M175" s="37" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="176" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L176" s="39" t="s">
+      <c r="L176" s="37" t="s">
         <v>1344</v>
       </c>
-      <c r="M176" s="39" t="s">
+      <c r="M176" s="37" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="177" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L177" s="39" t="s">
+      <c r="L177" s="37" t="s">
         <v>1349</v>
       </c>
-      <c r="M177" s="39" t="s">
+      <c r="M177" s="37" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="178" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L178" s="39" t="s">
+      <c r="L178" s="37" t="s">
         <v>1370</v>
       </c>
-      <c r="M178" s="39" t="s">
+      <c r="M178" s="37" t="s">
         <v>1373</v>
       </c>
     </row>
     <row r="179" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L179" s="39" t="s">
+      <c r="L179" s="37" t="s">
         <v>1390</v>
       </c>
-      <c r="M179" s="39" t="s">
+      <c r="M179" s="37" t="s">
         <v>1393</v>
       </c>
     </row>
     <row r="180" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L180" s="39" t="s">
+      <c r="L180" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="M180" s="39" t="s">
+      <c r="M180" s="37" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="181" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L181" s="39" t="s">
+      <c r="L181" s="37" t="s">
         <v>1420</v>
       </c>
-      <c r="M181" s="39" t="s">
+      <c r="M181" s="37" t="s">
         <v>1423</v>
       </c>
     </row>
     <row r="182" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L182" s="39" t="s">
+      <c r="L182" s="37" t="s">
         <v>1429</v>
       </c>
-      <c r="M182" s="39" t="s">
+      <c r="M182" s="37" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="183" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L183" s="39" t="s">
+      <c r="L183" s="37" t="s">
         <v>1449</v>
       </c>
-      <c r="M183" s="39" t="s">
+      <c r="M183" s="37" t="s">
         <v>1453</v>
       </c>
     </row>
     <row r="184" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L184" s="39" t="s">
+      <c r="L184" s="37" t="s">
         <v>1498</v>
       </c>
-      <c r="M184" s="39" t="s">
+      <c r="M184" s="37" t="s">
         <v>1501</v>
       </c>
     </row>
